--- a/Problem Description.xlsx
+++ b/Problem Description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954793C-3D04-416C-85F2-D5BAD7BC8A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A18425-AD41-4012-B3BF-67EE95D566A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="1860" windowWidth="28800" windowHeight="15435" xr2:uid="{D9311C8B-7B8E-4E08-905F-C2E448311643}"/>
+    <workbookView xWindow="5685" yWindow="1890" windowWidth="23115" windowHeight="13710" xr2:uid="{D9311C8B-7B8E-4E08-905F-C2E448311643}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
   <si>
     <t>Problem Number</t>
   </si>
@@ -99,13 +99,175 @@
   </si>
   <si>
     <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>2 pointers</t>
+  </si>
+  <si>
+    <t>Partition the 2 arrays separately and don't append one array to another</t>
+  </si>
+  <si>
+    <t>Find pivot index</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Initialize left sum as 0 and right sum as sum of entire array</t>
+  </si>
+  <si>
+    <t>Find out if 1 to 1 mapping exists</t>
+  </si>
+  <si>
+    <t>Longest palindromic substring</t>
+  </si>
+  <si>
+    <t>2d Array</t>
+  </si>
+  <si>
+    <t>IsSubsequence</t>
+  </si>
+  <si>
+    <t>Increment 1 pointer if a match is found</t>
+  </si>
+  <si>
+    <t>Middle of Linked List</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Fast and slow pointers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted list</t>
+  </si>
+  <si>
+    <t>Insertion sort</t>
+  </si>
+  <si>
+    <t>Create a new list and store the sorted nodes</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>Think of all nodes except the current one as one subproblem</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>LinkedL List cycle 2</t>
+  </si>
+  <si>
+    <t>Once the cycle restart the slow pointer</t>
+  </si>
+  <si>
+    <t>Best time to buy and sell stock</t>
+  </si>
+  <si>
+    <t>Try to find the inflection point</t>
+  </si>
+  <si>
+    <t>DP/ 2 pointers</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Handle both cases of being odd or even length palindrome</t>
+  </si>
+  <si>
+    <t>N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Children are a list of nodes not a pointer to left and right node</t>
+  </si>
+  <si>
+    <t>Backtracking/Iterative</t>
+  </si>
+  <si>
+    <t>DFS/Stack</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>2 loops needed - one for checking if queue exists and another for creating a sublist</t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>Greatest Common Divisor of Strings</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Create 2 array to store the prefix and suffix</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t>Shrink the window from the left when the number of zeros flipped exceeds the amount</t>
+  </si>
+  <si>
+    <t>Determine if 2 strings are close</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
+  </si>
+  <si>
+    <t>HashMap/Set</t>
+  </si>
+  <si>
+    <t>The same char must exist in both strings and the frequency of the chars should be same in both</t>
+  </si>
+  <si>
+    <t>Removing stars from a string</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Add elements to stack and remove from stack based on some condition</t>
+  </si>
+  <si>
+    <t>Odd Event Linked List</t>
+  </si>
+  <si>
+    <t>Variation of 2 pointers</t>
+  </si>
+  <si>
+    <t>Add the odd node to one side and even one another in 1 pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,16 +283,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,15 +329,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="3" builtinId="49"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D297B1EE-4875-45A1-8E9D-1B513547462D}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,8 +689,8 @@
     <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="87" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,7 +727,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -535,7 +753,7 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
@@ -552,6 +770,495 @@
       </c>
       <c r="H3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>724</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>392</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>876</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>409</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>589</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>704</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>278</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1071</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>238</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1657</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2390</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>328</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Problem Description.xlsx
+++ b/Problem Description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A18425-AD41-4012-B3BF-67EE95D566A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A0CD99-B55B-4B8C-8D3A-6E57ABA8DD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="1890" windowWidth="23115" windowHeight="13710" xr2:uid="{D9311C8B-7B8E-4E08-905F-C2E448311643}"/>
+    <workbookView xWindow="5685" yWindow="1890" windowWidth="28680" windowHeight="13710" xr2:uid="{D9311C8B-7B8E-4E08-905F-C2E448311643}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
   <si>
     <t>Problem Number</t>
   </si>
@@ -261,6 +261,27 @@
   </si>
   <si>
     <t>Add the odd node to one side and even one another in 1 pass</t>
+  </si>
+  <si>
+    <t>Path Sum 3</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Need 2 function - one to start with new root and one to actually calc the path</t>
+  </si>
+  <si>
+    <t>Longest ZigZag Path in Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>ZigZag path can start from middle of node. Keep a direction check at every iteration</t>
   </si>
 </sst>
 </file>
@@ -677,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D297B1EE-4875-45A1-8E9D-1B513547462D}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,6 +1282,58 @@
         <v>74</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>437</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1372</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Problem Description.xlsx
+++ b/Problem Description.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A0CD99-B55B-4B8C-8D3A-6E57ABA8DD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2215DC17-0111-4CC5-8F06-C8BBB2FED956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="1890" windowWidth="28680" windowHeight="13710" xr2:uid="{D9311C8B-7B8E-4E08-905F-C2E448311643}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="96">
   <si>
     <t>Problem Number</t>
   </si>
@@ -269,9 +269,6 @@
     <t>DFS</t>
   </si>
   <si>
-    <t>Need 2 function - one to start with new root and one to actually calc the path</t>
-  </si>
-  <si>
     <t>Longest ZigZag Path in Binary Tree</t>
   </si>
   <si>
@@ -282,6 +279,54 @@
   </si>
   <si>
     <t>ZigZag path can start from middle of node. Keep a direction check at every iteration</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>Only add the right child node into the resulting array</t>
+  </si>
+  <si>
+    <t>Max Level Sum of Binary Tree</t>
+  </si>
+  <si>
+    <t>Keys and Rooms</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Adjacent List</t>
+  </si>
+  <si>
+    <t>Number of Provinces</t>
+  </si>
+  <si>
+    <t>Adjacent Matrix</t>
+  </si>
+  <si>
+    <t>Iterate through all rooms and find a key then add it to visited</t>
+  </si>
+  <si>
+    <t>Min Cost Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Fibonacci Sequence with a twist</t>
+  </si>
+  <si>
+    <t>House Robber 1</t>
+  </si>
+  <si>
+    <t>Fibonacci Sequence</t>
+  </si>
+  <si>
+    <t>Handle 2 cases separately
+Case 1: Find all the paths from the root node
+Case 2: Find all paths from subtree
+Add all the paths so it should be root + left  + right</t>
   </si>
 </sst>
 </file>
@@ -402,9 +447,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -442,7 +487,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -548,7 +593,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -690,7 +735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D297B1EE-4875-45A1-8E9D-1B513547462D}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>437</v>
       </c>
@@ -1301,8 +1346,8 @@
       <c r="F25" t="s">
         <v>76</v>
       </c>
-      <c r="G25" t="s">
-        <v>77</v>
+      <c r="G25" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="H25" t="s">
         <v>76</v>
@@ -1313,25 +1358,192 @@
         <v>1372</v>
       </c>
       <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>79</v>
-      </c>
-      <c r="E26" t="s">
-        <v>80</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>236</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>199</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>841</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>547</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>746</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>198</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
